--- a/HyPAT/backup_datafiles/material_data_backup.xlsx
+++ b/HyPAT/backup_datafiles/material_data_backup.xlsx
@@ -2,34 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EVANGS\Documents\Permeation\Perm_GUI\datafiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EVANGS\Downloads\HyPAT 2.1.3 Hopefully\datafiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418FCDC9-1903-4BF9-A509-E87A356EAD87}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B54E6D-03F4-4245-8C55-AF794CA02335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B8AA3310-02E0-7D44-81D3-4AFA808B5F84}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -42,21 +28,24 @@
     <t>Solubility</t>
   </si>
   <si>
+    <t>Material</t>
+  </si>
+  <si>
     <t>D0 [m^2 s^-1]</t>
   </si>
   <si>
     <t>E_D [kJ mol^-1]</t>
   </si>
   <si>
-    <t>K0 [mol(Q2) m^-3 Pa^-0.5]</t>
+    <t>min. temp. [K]</t>
+  </si>
+  <si>
+    <t>max. temp. [K]</t>
   </si>
   <si>
     <t>E_K [kJ mol^-1]</t>
   </si>
   <si>
-    <t>Material</t>
-  </si>
-  <si>
     <t>Lithium (lq)</t>
   </si>
   <si>
@@ -138,22 +127,16 @@
     <t>Pb-Li</t>
   </si>
   <si>
-    <t>max. temp. [K]</t>
-  </si>
-  <si>
-    <t>min. temp. [K]</t>
+    <t>K0 [mol m^-3 Pa^-0.5]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -161,19 +144,8 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,21 +165,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <right style="thin">
         <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -215,8 +182,23 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -225,56 +207,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -297,44 +245,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -361,32 +309,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -413,24 +343,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -442,1020 +354,1027 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08DF4189-2067-1A42-B574-2D28DCEA1CA0}">
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="14" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="4"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>34</v>
+      <c r="I2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
+        <v>8</v>
+      </c>
+      <c r="B3">
         <v>1.2999999999999999E-3</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>105</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>898</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>1178</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>0.17499999999999999</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3">
         <v>-51.4</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3">
         <v>983</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3">
         <v>1176</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4">
+        <v>9</v>
+      </c>
+      <c r="B4">
         <v>1.13E-8</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>35.1</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4">
         <v>620</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4">
         <v>775</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4">
         <v>1.9E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4">
         <v>16.8</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4">
         <v>673</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4">
         <v>1473</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="4">
+        <v>10</v>
+      </c>
+      <c r="B5">
         <v>1.7500000000000001E-8</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5">
         <v>16.2</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5">
         <v>298</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5">
         <v>873</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5">
         <v>39.700000000000003</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5">
         <v>723</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5">
         <v>873</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4">
+        <v>11</v>
+      </c>
+      <c r="B6">
         <v>1.19E-6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>49.1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6">
         <v>873</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6">
         <v>1123</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6">
         <v>0.5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6">
         <v>-42.7</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6">
         <v>873</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6">
         <v>1123</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="4">
+        <v>12</v>
+      </c>
+      <c r="B7">
         <v>2.9000000000000002E-8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7">
         <v>4.2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7">
         <v>173</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7">
         <v>573</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7">
         <v>0.13800000000000001</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7">
         <v>-29</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7">
         <v>519</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7">
         <v>827</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4">
+        <v>13</v>
+      </c>
+      <c r="B8">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>4.5</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8">
         <v>573</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8">
         <v>1073</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8">
         <v>0.35</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8">
         <v>24.3</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8">
         <v>473</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8">
         <v>1183</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4">
+        <v>14</v>
+      </c>
+      <c r="B9">
         <v>6.8700000000000005E-7</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9">
         <v>40.5</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>300</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9">
         <v>1473</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9">
         <v>15.8</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9">
         <v>300</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="4">
+        <v>15</v>
+      </c>
+      <c r="B10">
         <v>2.2600000000000001E-7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>29.3</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10">
         <v>673</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10">
         <v>1073</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10">
         <v>0.13700000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10">
         <v>31.2</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10">
         <v>673</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10">
         <v>1073</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="4">
+        <v>16</v>
+      </c>
+      <c r="B11">
         <v>7.9999999999999996E-7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11">
         <v>45.3</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11">
         <v>548</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11">
         <v>973</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11">
         <v>0.43</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11">
         <v>-49.5</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11">
         <v>602</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11">
         <v>1069</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="4">
+        <v>17</v>
+      </c>
+      <c r="B12">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>22.3</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12">
         <v>500</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12">
         <v>1000</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12">
         <v>3.5</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12">
         <v>38</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12">
         <v>500</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12">
         <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="4">
+        <v>18</v>
+      </c>
+      <c r="B13">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13">
         <v>10.199999999999999</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13">
         <v>273</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13">
         <v>773</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13">
         <v>0.126</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13">
         <v>-35.299999999999997</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13">
         <v>625</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13">
         <v>944</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="4">
+        <v>19</v>
+      </c>
+      <c r="B14">
         <v>2.8999999999999998E-7</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>22.2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14">
         <v>223</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14">
         <v>873</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14">
         <v>0.44500000000000001</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14">
         <v>-8.4</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14">
         <v>473</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14">
         <v>673</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="4">
+        <v>20</v>
+      </c>
+      <c r="B15">
         <v>8.5499999999999997E-7</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15">
         <v>30.1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15">
         <v>947</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15">
         <v>1123</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15">
         <v>0.26</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15">
         <v>56.7</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15">
         <v>976</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15">
         <v>1214</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="4">
+        <v>21</v>
+      </c>
+      <c r="B16">
         <v>4.3999999999999997E-8</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>13.5</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16">
         <v>253</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16">
         <v>573</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16">
         <v>0.13200000000000001</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16">
         <v>-33.700000000000003</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16">
         <v>623</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16">
         <v>904</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="4">
+        <v>22</v>
+      </c>
+      <c r="B17">
         <v>1.5800000000000001E-7</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17">
         <v>24.1</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17">
         <v>300</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17">
         <v>2500</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17">
         <v>3.8924050632911391</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17">
         <v>113.9</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17">
         <v>1100</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17">
         <v>2500</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="4">
+        <v>23</v>
+      </c>
+      <c r="B18">
         <v>5.9999999999999997E-7</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18">
         <v>24.7</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18">
         <v>300</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18">
         <v>973</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18">
         <v>0.21</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18">
         <v>46</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18">
         <v>300</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18">
         <v>973</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="4">
+        <v>24</v>
+      </c>
+      <c r="B19">
         <v>5.5999999999999999E-8</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>23.6</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19">
         <v>773</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19">
         <v>1273</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19">
         <v>78</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19">
         <v>99.4</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>773</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19">
         <v>873</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="4">
+        <v>25</v>
+      </c>
+      <c r="B20">
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>13.2</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20">
         <v>300</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20">
         <v>973</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20">
         <v>0.44</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>28.6</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20">
         <v>300</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20">
         <v>973</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
         <v>1.9999999999999999E-7</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21">
         <v>49.3</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21">
         <v>373</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21">
         <v>623</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21">
         <v>0.27</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21">
         <v>6.9</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21">
         <v>373</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21">
         <v>623</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
         <v>8.7000000000000003E-7</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>51.9</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22">
         <v>500</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22">
         <v>1200</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22">
         <v>0.36</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22">
         <v>11.7</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22">
         <v>500</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22">
         <v>1200</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="4">
+        <v>28</v>
+      </c>
+      <c r="B23">
         <v>4.8999999999999997E-6</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>42.5</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23">
         <v>873</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23">
         <v>1173</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23">
         <v>0.1618</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23">
         <v>21.2</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23">
         <v>873</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23">
         <v>1173</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="4">
+        <v>29</v>
+      </c>
+      <c r="B24">
         <v>1.75E-6</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>52.6</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24">
         <v>673</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24">
         <v>873</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24">
         <v>0.20899999999999999</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24">
         <v>10.5</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24">
         <v>673</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24">
         <v>873</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="4">
+        <v>30</v>
+      </c>
+      <c r="B25">
         <v>1.6799999999999998E-5</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>56.4</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25">
         <v>1023</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25">
         <v>1223</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25">
         <v>2.1649999999999998E-3</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25">
         <v>0.2</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25">
         <v>1023</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25">
         <v>1223</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B26" s="4">
+        <v>31</v>
+      </c>
+      <c r="B26">
         <v>5.7000000000000005E-7</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>41.2</v>
       </c>
-      <c r="D26" s="2">
+      <c r="D26">
         <v>553</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26">
         <v>773</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26">
         <v>0.57899999999999996</v>
       </c>
-      <c r="G26" s="3">
+      <c r="G26">
         <v>38.6</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26">
         <v>553</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26">
         <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B27" s="4">
+        <v>32</v>
+      </c>
+      <c r="B27">
         <v>7.5000000000000002E-7</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>12.5</v>
       </c>
-      <c r="D27" s="2">
+      <c r="D27">
         <v>373</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27">
         <v>573</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27">
         <v>0.41399999999999998</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27">
         <v>-21.7</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27">
         <v>673</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27">
         <v>1073</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="4">
+        <v>33</v>
+      </c>
+      <c r="B28">
         <v>3.0699999999999998E-7</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>25.9</v>
       </c>
-      <c r="D28" s="2">
+      <c r="D28">
         <v>323</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28">
         <v>773</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28">
         <v>0.18179999999999999</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>-19.600000000000001</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28">
         <v>323</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28">
         <v>773</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="11">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
         <v>4.0299999999999997E-8</v>
       </c>
-      <c r="C29" s="12">
+      <c r="C29">
         <v>19.5</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29">
         <v>523</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E29">
         <v>703</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29">
         <v>53.8</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29">
         <v>773</v>
       </c>
-      <c r="I29" s="13">
+      <c r="I29">
         <v>973</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e31427f38a75fcdd1783218c0384377">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35bb6df2db9f156dbe836cf6fb196ff8" ns2:_="">
     <xsd:import namespace="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
@@ -1613,6 +1532,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1623,7 +1548,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{29626D1A-96C1-41C4-A5A3-6C4397B614A5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DF35C43-A237-40C1-A442-657E7A3FE105}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BF7A2E08-A904-484E-BCA9-CA4ACF787770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -1631,12 +1574,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02A4BB54-11A0-4C40-974E-CFD3639047A5}"/>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{27EAF96F-FD9B-42E5-9920-8FCE15AE809E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE77F655-B80B-4D6A-B347-8C76E17F1475}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>

--- a/HyPAT/backup_datafiles/material_data_backup.xlsx
+++ b/HyPAT/backup_datafiles/material_data_backup.xlsx
@@ -1375,9 +1375,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0e31427f38a75fcdd1783218c0384377">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="35bb6df2db9f156dbe836cf6fb196ff8" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E9F8C9387A78CF4ABC9716CAB0906071" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="34b5283cf4dfffaff109746742aa09de">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="aa8bfe3d-3fd0-41f5-9c33-87c45324e297" xmlns:ns3="ca77b916-f394-4de9-b274-c15ee8638632" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="898ab104950e04c568cc6a94d04fd6c3" ns2:_="" ns3:_="">
     <xsd:import namespace="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
+    <xsd:import namespace="ca77b916-f394-4de9-b274-c15ee8638632"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
@@ -1390,6 +1391,8 @@
                 <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1431,6 +1434,28 @@
           <xsd:maxLength value="255"/>
         </xsd:restriction>
       </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="0b78db39-37aa-4e28-bb7e-9642684d42d7" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ca77b916-f394-4de9-b274-c15ee8638632" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{9bdfb1f9-b4f9-4545-a4bc-c42b1cd3b611}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="2d7da570-499c-4ae8-bbfb-bca14132ce0c">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -1534,7 +1559,12 @@
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="aa8bfe3d-3fd0-41f5-9c33-87c45324e297">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="ca77b916-f394-4de9-b274-c15ee8638632" xsi:nil="true"/>
+  </documentManagement>
 </p:properties>
 </file>
 
@@ -1548,21 +1578,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DF35C43-A237-40C1-A442-657E7A3FE105}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="aa8bfe3d-3fd0-41f5-9c33-87c45324e297"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CC55245-B7F0-4CD6-B451-21D1F9A223C0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
